--- a/src/Sem2_Denna.xlsx
+++ b/src/Sem2_Denna.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Моделювання систем" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Математична логіка" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -812,4 +813,454 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Математична логіка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Семестр1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ПІБ викладача</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>К-сть студ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Шифр групп</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>К-сть Потоків</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>К-сть Підгруп</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Чит. лекцій</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Провед. лабор. занять</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Провед. практ./ семінар. занять</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Пров. консульт з нав. дисц. протягом семестру</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Пров. екзам. консультацій</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Керівництво і приймання КП/КР</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Пров. заліку</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Пров. сем. екз.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Кер-тво, консульт., реце-ня ДП</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Пров-ня захисту</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Кваліф. Іспит</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Кер-тво НДРС</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Кер-тво аспірантами, здобувачами</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Кер-тво практ.</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Інші види -5%</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Дист. Модуль</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Додаткові години</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Всього</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Плотніков В. М.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>35</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КН-321, КН-321, КН-322, </t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Корнієнко Ю.К.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КН-321, КН-321, КН-322, </t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Плотніков В. М.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КН-321, КН-321, КН-322, </t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Всього</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">КН-321, КН-321, КН-322, </t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>